--- a/raw/stage.xlsx
+++ b/raw/stage.xlsx
@@ -55,9 +55,6 @@
     <t>11:00-11:20</t>
   </si>
   <si>
-    <t>极贝科技（Geekplay）AR游戏枪/AR弓箭 演示</t>
-  </si>
-  <si>
     <t xml:space="preserve">结合手机app，可以进行多款 AR （增强现实）互动游戏。玩家可以在现实生活中体验深海捕鱼、太空战机、猎龙等游戏。
 </t>
   </si>
@@ -99,21 +96,12 @@
     <t>8 13</t>
   </si>
   <si>
-    <t>电视系统展示</t>
-  </si>
-  <si>
     <t>王洋13811522317</t>
   </si>
   <si>
-    <t>机器人编程改变自己，改变世界</t>
-  </si>
-  <si>
     <t>张璜 13428651081</t>
   </si>
   <si>
-    <t>特殊材质手套、臂套展示</t>
-  </si>
-  <si>
     <t>智能手套能随时监测您的身体状况陪伴您的健康生活</t>
   </si>
   <si>
@@ -123,31 +111,19 @@
     <t>13:15-13:30</t>
   </si>
   <si>
-    <t>有温度的科技</t>
-  </si>
-  <si>
     <t>用科技做设计，用装置讲故事，用情感链接人与人，人与物。---SeeekLab 有温度的科技</t>
   </si>
   <si>
     <t>刘女士18750938322</t>
   </si>
   <si>
-    <t>啃萝卜智能硬件平台展示</t>
-  </si>
-  <si>
     <t>郭小姐18311125239</t>
   </si>
   <si>
-    <t>电子墨水护眼显示器展示</t>
-  </si>
-  <si>
     <t>全球首款电子墨水护眼显示器</t>
   </si>
   <si>
     <t>齐云清15910446030</t>
-  </si>
-  <si>
-    <t>ScratchPi可编程电子积木展示</t>
   </si>
   <si>
     <t>ScratchPi可编程电子积木适用于青少年创客教育，让小朋友们在学习编程的同时，又能学习机器人控制原理，体验科技的魅力。
@@ -155,12 +131,6 @@
   </si>
   <si>
     <t>黄岗桂17302168108</t>
-  </si>
-  <si>
-    <t>敏行科技公司介绍</t>
-  </si>
-  <si>
-    <t>敏行科技公司宣传介绍</t>
   </si>
   <si>
     <t>王强13693200752</t>
@@ -186,9 +156,6 @@
     <t>陈亚18810680409</t>
   </si>
   <si>
-    <t>Peter工作室宣传介绍</t>
-  </si>
-  <si>
     <t>Peter工作室的产品和自我宣传</t>
   </si>
   <si>
@@ -255,9 +222,6 @@
     <t>梦忻15650788583</t>
   </si>
   <si>
-    <t>创意瓦楞纸家居展示</t>
-  </si>
-  <si>
     <t>几合家是一个新出生的创意瓦楞纸家居品牌，产品有包括生活家居、儿童家居、宠物家居。</t>
   </si>
   <si>
@@ -268,9 +232,6 @@
   </si>
   <si>
     <t>张嘉惠82115142</t>
-  </si>
-  <si>
-    <t>爱动超越智能跑鞋电子模块展示</t>
   </si>
   <si>
     <t>智能跑鞋电子模块展示</t>
@@ -317,19 +278,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Defacto企业介绍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能亚克力电子积木展示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Defacto公司介绍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>博创尚和公司产品演示</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -338,10 +287,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Brick 'R' knowledge企业介绍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>中国最酷的大屏！</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -426,6 +371,57 @@
   </si>
   <si>
     <t>11:00-11:15</t>
+  </si>
+  <si>
+    <t>Brick 'R' knowledge</t>
+  </si>
+  <si>
+    <t>Defacto</t>
+  </si>
+  <si>
+    <t>敏行科技公司</t>
+  </si>
+  <si>
+    <t>Peter工作室</t>
+  </si>
+  <si>
+    <t>电视系统</t>
+  </si>
+  <si>
+    <t>KittenBot: 机器人编程改变自己，改变世界</t>
+  </si>
+  <si>
+    <t>特殊材质手套、臂套</t>
+  </si>
+  <si>
+    <t>极贝科技 Geekplay AR游戏枪/AR弓箭</t>
+  </si>
+  <si>
+    <t>创意瓦楞纸家居</t>
+  </si>
+  <si>
+    <t>爱动超越智能跑鞋电子模块</t>
+  </si>
+  <si>
+    <t>博创尚和</t>
+  </si>
+  <si>
+    <t>智能亚克力电子积木</t>
+  </si>
+  <si>
+    <t>SeeekLab 有温度的科技</t>
+  </si>
+  <si>
+    <t>啃萝卜智能硬件平台</t>
+  </si>
+  <si>
+    <t>电子墨水护眼显示器</t>
+  </si>
+  <si>
+    <t>ScratchPi可编程电子积木</t>
+  </si>
+  <si>
+    <t>敏行科技</t>
   </si>
 </sst>
 </file>
@@ -803,21 +799,21 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="85.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,47 +838,47 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.2">
@@ -890,84 +886,84 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="108" x14ac:dyDescent="0.2">
@@ -975,67 +971,67 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1043,16 +1039,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1060,16 +1056,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.2">
@@ -1077,237 +1073,237 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="126" x14ac:dyDescent="0.2">
@@ -1315,16 +1311,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.2">
@@ -1332,16 +1328,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
